--- a/Codes/dict_compose_poisson_freq1.xlsx
+++ b/Codes/dict_compose_poisson_freq1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dict_compose_poisson_freq" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E913"/>
+  <dimension ref="A1:E933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(199, 6)</t>
+          <t>(84, 18)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(317, 19)</t>
+          <t>(146, 6)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(225, 22)</t>
+          <t>(227, 27)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -524,7 +524,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(127, 19)</t>
+          <t>(95, 2)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(231, 8)</t>
+          <t>(113, 18)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(365, 27)</t>
+          <t>(106, 14)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(282, 8)</t>
+          <t>(134, 22)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(234, 16)</t>
+          <t>(114, 46)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -619,11 +619,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(220, 15)</t>
+          <t>(186, 0)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +638,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(194, 0)</t>
+          <t>(223, 15)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(267, 26)</t>
+          <t>(183, 13)</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -676,7 +676,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(226, 11)</t>
+          <t>(120, 22)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -695,11 +695,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(219, 6)</t>
+          <t>(203, 21)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="15">
@@ -714,7 +714,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(411, 5)</t>
+          <t>(319, 8)</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(177, 8)</t>
+          <t>(331, 26)</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -752,7 +752,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(257, 13)</t>
+          <t>(301, 29)</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(287, 19)</t>
+          <t>(146, 17)</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -790,7 +790,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(410, 6)</t>
+          <t>(144, 21)</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -809,11 +809,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(170, 22)</t>
+          <t>(342, 16)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="21">
@@ -828,7 +828,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(179, 5)</t>
+          <t>(189, 43)</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -847,7 +847,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(273, 16)</t>
+          <t>(178, 0)</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -866,7 +866,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(378, 0)</t>
+          <t>(177, 9)</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -885,11 +885,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(228, 54)</t>
+          <t>(178, 23)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="25">
@@ -904,7 +904,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(115, 3)</t>
+          <t>(126, 19)</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(160, 10)</t>
+          <t>(229, 22)</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -942,7 +942,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(118, 19)</t>
+          <t>(267, 28)</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -961,7 +961,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(211, 66)</t>
+          <t>(125, 31)</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -980,11 +980,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(149, 17)</t>
+          <t>(267, 26)</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="30">
@@ -999,11 +999,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(382, 15)</t>
+          <t>(393, 0)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="31">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>(142, 28)</t>
+          <t>(289, 18)</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>(373, 0)</t>
+          <t>(259, 0)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="33">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(239, 15)</t>
+          <t>(118, 17)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="34">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(185, 10)</t>
+          <t>(269, 24)</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(291, 21)</t>
+          <t>(197, 9)</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>(246, 0)</t>
+          <t>(206, 31)</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>(179, 16)</t>
+          <t>(220, 24)</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>(339, 8)</t>
+          <t>(333, 23)</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>(234, 12)</t>
+          <t>(297, 15)</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(152, 0)</t>
+          <t>(93, 5)</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(231, 14)</t>
+          <t>(250, 8)</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>(175, 12)</t>
+          <t>(178, 4)</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>(88, 8)</t>
+          <t>(221, 0)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="44">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(254, 0)</t>
+          <t>(192, 0)</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(323, 9)</t>
+          <t>(240, 18)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="46">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(179, 0)</t>
+          <t>(258, 0)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="47">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>(143, 10)</t>
+          <t>(304, 7)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="48">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(214, 25)</t>
+          <t>(197, 33)</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1360,11 +1360,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(207, 7)</t>
+          <t>(253, 15)</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="50">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(128, 0)</t>
+          <t>(93, 17)</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="51">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>(367, 22)</t>
+          <t>(195, 13)</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>(196, 9)</t>
+          <t>(184, 12)</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1436,11 +1436,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>(205, 7)</t>
+          <t>(316, 4)</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="54">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>(149, 7)</t>
+          <t>(121, 46)</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>(171, 9)</t>
+          <t>(204, 22)</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>(185, 8)</t>
+          <t>(114, 9)</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>(390, 0)</t>
+          <t>(168, 34)</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(238, 8)</t>
+          <t>(288, 13)</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1550,11 +1550,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>(286, 0)</t>
+          <t>(229, 12)</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="60">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(301, 0)</t>
+          <t>(192, 15)</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(123, 0)</t>
+          <t>(239, 0)</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(283, 7)</t>
+          <t>(155, 0)</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>(226, 21)</t>
+          <t>(259, 12)</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(142, 0)</t>
+          <t>(195, 20)</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(185, 16)</t>
+          <t>(197, 24)</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1683,11 +1683,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(219, 0)</t>
+          <t>(252, 0)</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="67">
@@ -1702,11 +1702,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(221, 30)</t>
+          <t>(319, 0)</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="68">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(370, 13)</t>
+          <t>(175, 29)</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>(262, 0)</t>
+          <t>(259, 47)</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1759,11 +1759,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(225, 10)</t>
+          <t>(301, 50)</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="71">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(333, 8)</t>
+          <t>(204, 7)</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1797,11 +1797,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(224, 0)</t>
+          <t>(171, 0)</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="73">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(193, 38)</t>
+          <t>(197, 20)</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(119, 23)</t>
+          <t>(271, 6)</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(230, 34)</t>
+          <t>(295, 6)</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -1873,11 +1873,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(291, 22)</t>
+          <t>(208, 15)</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="77">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(202, 22)</t>
+          <t>(172, 9)</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>(198, 8)</t>
+          <t>(58, 0)</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -1930,11 +1930,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(229, 0)</t>
+          <t>(215, 21)</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="80">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>(174, 7)</t>
+          <t>(423, 22)</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>(112, 13)</t>
+          <t>(223, 7)</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -1987,11 +1987,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(89, 16)</t>
+          <t>(299, 9)</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="83">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(335, 8)</t>
+          <t>(206, 0)</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(222, 19)</t>
+          <t>(119, 16)</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="85">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>(327, 0)</t>
+          <t>(390, 6)</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="86">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>(228, 14)</t>
+          <t>(203, 11)</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>(192, 8)</t>
+          <t>(151, 14)</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>(181, 21)</t>
+          <t>(323, 33)</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>(294, 36)</t>
+          <t>(257, 16)</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>(298, 25)</t>
+          <t>(305, 13)</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2158,11 +2158,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>(148, 0)</t>
+          <t>(229, 37)</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="92">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>(119, 15)</t>
+          <t>(249, 9)</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>(200, 19)</t>
+          <t>(327, 32)</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>(249, 8)</t>
+          <t>(468, 14)</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>(336, 12)</t>
+          <t>(111, 12)</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>(476, 17)</t>
+          <t>(208, 0)</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>(310, 14)</t>
+          <t>(245, 21)</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>(173, 15)</t>
+          <t>(178, 8)</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>(258, 28)</t>
+          <t>(383, 8)</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2329,11 +2329,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>(108, 18)</t>
+          <t>(292, 5)</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="101">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>(263, 19)</t>
+          <t>(225, 15)</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="102">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>(395, 18)</t>
+          <t>(144, 20)</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>(282, 21)</t>
+          <t>(263, 33)</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>(157, 5)</t>
+          <t>(312, 0)</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -2424,11 +2424,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>(214, 10)</t>
+          <t>(144, 7)</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="106">
@@ -2443,11 +2443,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>(242, 0)</t>
+          <t>(353, 5)</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="107">
@@ -2462,11 +2462,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>(294, 9)</t>
+          <t>(216, 9)</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="108">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>(461, 0)</t>
+          <t>(263, 19)</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>(355, 5)</t>
+          <t>(284, 0)</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>(87, 15)</t>
+          <t>(175, 11)</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>(199, 30)</t>
+          <t>(346, 20)</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -2557,11 +2557,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>(194, 16)</t>
+          <t>(381, 23)</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="113">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>(176, 0)</t>
+          <t>(342, 4)</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>(195, 47)</t>
+          <t>(427, 10)</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>(338, 23)</t>
+          <t>(423, 23)</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -2633,11 +2633,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>(253, 10)</t>
+          <t>(170, 0)</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="117">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>(304, 7)</t>
+          <t>(251, 25)</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -2671,11 +2671,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>(393, 14)</t>
+          <t>(172, 0)</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="119">
@@ -2690,11 +2690,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>(182, 18)</t>
+          <t>(207, 58)</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="120">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>(109, 29)</t>
+          <t>(315, 12)</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>(140, 11)</t>
+          <t>(177, 25)</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>(260, 0)</t>
+          <t>(85, 40)</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>(205, 38)</t>
+          <t>(194, 42)</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>(213, 9)</t>
+          <t>(316, 0)</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -2804,11 +2804,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>(179, 13)</t>
+          <t>(150, 7)</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="126">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>(331, 29)</t>
+          <t>(118, 56)</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>(213, 16)</t>
+          <t>(323, 11)</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>(262, 18)</t>
+          <t>(286, 8)</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>(272, 12)</t>
+          <t>(199, 24)</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>(287, 15)</t>
+          <t>(226, 20)</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -2918,11 +2918,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>(206, 30)</t>
+          <t>(316, 28)</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="132">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>(436, 36)</t>
+          <t>(205, 11)</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>(397, 18)</t>
+          <t>(156, 38)</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>(388, 19)</t>
+          <t>(238, 29)</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -2994,11 +2994,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>(148, 21)</t>
+          <t>(266, 24)</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="136">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>(305, 13)</t>
+          <t>(284, 24)</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="137">
@@ -3032,11 +3032,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>(402, 17)</t>
+          <t>(272, 10)</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="138">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>(250, 14)</t>
+          <t>(256, 24)</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3070,11 +3070,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>(182, 9)</t>
+          <t>(263, 15)</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="140">
@@ -3089,11 +3089,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>(395, 9)</t>
+          <t>(231, 17)</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="141">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>(193, 22)</t>
+          <t>(110, 16)</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>(171, 5)</t>
+          <t>(196, 17)</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>(305, 0)</t>
+          <t>(269, 0)</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>(209, 31)</t>
+          <t>(227, 20)</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>(347, 13)</t>
+          <t>(142, 9)</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>(426, 0)</t>
+          <t>(147, 12)</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>(410, 28)</t>
+          <t>(341, 0)</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>(284, 3)</t>
+          <t>(311, 14)</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>(289, 15)</t>
+          <t>(109, 8)</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>(229, 31)</t>
+          <t>(197, 18)</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>(255, 22)</t>
+          <t>(316, 17)</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>(282, 15)</t>
+          <t>(211, 6)</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>(190, 24)</t>
+          <t>(149, 0)</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>(303, 16)</t>
+          <t>(169, 7)</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>(138, 20)</t>
+          <t>(316, 16)</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>(255, 8)</t>
+          <t>(209, 13)</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -3412,11 +3412,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>(290, 29)</t>
+          <t>(171, 6)</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="158">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>(221, 25)</t>
+          <t>(180, 7)</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>(161, 46)</t>
+          <t>(308, 12)</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>(153, 30)</t>
+          <t>(298, 19)</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>(90, 26)</t>
+          <t>(314, 10)</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>(298, 0)</t>
+          <t>(353, 31)</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>(273, 27)</t>
+          <t>(259, 25)</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>(179, 19)</t>
+          <t>(171, 29)</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>(299, 0)</t>
+          <t>(237, 7)</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>(179, 8)</t>
+          <t>(207, 8)</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>(52, 21)</t>
+          <t>(168, 15)</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -3621,11 +3621,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>(146, 10)</t>
+          <t>(228, 27)</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="169">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>(295, 10)</t>
+          <t>(215, 20)</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -3659,11 +3659,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>(296, 18)</t>
+          <t>(263, 29)</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="171">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>(232, 45)</t>
+          <t>(256, 5)</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>(351, 17)</t>
+          <t>(145, 7)</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>(233, 10)</t>
+          <t>(235, 39)</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>(196, 6)</t>
+          <t>(235, 17)</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>(245, 39)</t>
+          <t>(371, 29)</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>(176, 31)</t>
+          <t>(113, 12)</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>(253, 25)</t>
+          <t>(214, 4)</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -3811,11 +3811,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>(169, 8)</t>
+          <t>(201, 27)</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="179">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>(177, 12)</t>
+          <t>(289, 14)</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>(330, 0)</t>
+          <t>(178, 18)</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -3868,11 +3868,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>(288, 21)</t>
+          <t>(147, 33)</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="182">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>(206, 14)</t>
+          <t>(368, 0)</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>(132, 11)</t>
+          <t>(231, 11)</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>(397, 19)</t>
+          <t>(107, 34)</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>(380, 19)</t>
+          <t>(255, 0)</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>(183, 0)</t>
+          <t>(251, 22)</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>(357, 4)</t>
+          <t>(125, 26)</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -4001,11 +4001,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>(228, 0)</t>
+          <t>(312, 15)</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="189">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>(177, 13)</t>
+          <t>(266, 0)</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>(134, 41)</t>
+          <t>(350, 44)</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>(347, 5)</t>
+          <t>(410, 0)</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>(171, 35)</t>
+          <t>(131, 6)</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>(249, 5)</t>
+          <t>(209, 4)</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>(223, 6)</t>
+          <t>(111, 33)</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>(243, 0)</t>
+          <t>(184, 10)</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>(180, 7)</t>
+          <t>(193, 38)</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>(267, 12)</t>
+          <t>(174, 9)</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>(210, 9)</t>
+          <t>(181, 0)</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>(148, 16)</t>
+          <t>(112, 7)</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>(235, 20)</t>
+          <t>(170, 24)</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>(182, 10)</t>
+          <t>(263, 22)</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>(201, 25)</t>
+          <t>(329, 7)</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>(120, 19)</t>
+          <t>(195, 7)</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -4305,11 +4305,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>(319, 0)</t>
+          <t>(267, 0)</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="205">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>(86, 13)</t>
+          <t>(198, 20)</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -4343,11 +4343,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>(299, 12)</t>
+          <t>(235, 0)</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="207">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>(430, 38)</t>
+          <t>(276, 0)</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>(237, 13)</t>
+          <t>(322, 27)</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>(359, 20)</t>
+          <t>(295, 12)</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -4419,11 +4419,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>(210, 0)</t>
+          <t>(221, 16)</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="211">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>(226, 15)</t>
+          <t>(268, 33)</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>(212, 23)</t>
+          <t>(278, 8)</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>(382, 8)</t>
+          <t>(227, 29)</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>(112, 14)</t>
+          <t>(113, 15)</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>(201, 7)</t>
+          <t>(176, 16)</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>(261, 30)</t>
+          <t>(202, 14)</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>(117, 0)</t>
+          <t>(234, 6)</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>(133, 14)</t>
+          <t>(311, 10)</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>(299, 8)</t>
+          <t>(318, 8)</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>(219, 16)</t>
+          <t>(253, 22)</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>(195, 28)</t>
+          <t>(196, 10)</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>(129, 16)</t>
+          <t>(235, 12)</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>(229, 27)</t>
+          <t>(254, 16)</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>(230, 17)</t>
+          <t>(205, 10)</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>(234, 10)</t>
+          <t>(284, 52)</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>(173, 5)</t>
+          <t>(285, 11)</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>(186, 26)</t>
+          <t>(169, 25)</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>(168, 17)</t>
+          <t>(219, 20)</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>(118, 0)</t>
+          <t>(334, 0)</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="230">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>(172, 14)</t>
+          <t>(261, 3)</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -4818,11 +4818,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>(313, 17)</t>
+          <t>(232, 0)</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="232">
@@ -4837,11 +4837,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>(135, 16)</t>
+          <t>(273, 0)</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="233">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>(244, 21)</t>
+          <t>(204, 10)</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>(219, 4)</t>
+          <t>(344, 19)</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>(212, 0)</t>
+          <t>(324, 0)</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>(263, 17)</t>
+          <t>(95, 31)</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>(200, 6)</t>
+          <t>(26, 0)</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>(225, 12)</t>
+          <t>(157, 6)</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>(270, 15)</t>
+          <t>(273, 18)</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>(259, 12)</t>
+          <t>(311, 13)</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>(116, 10)</t>
+          <t>(295, 25)</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>(323, 20)</t>
+          <t>(264, 4)</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -5046,11 +5046,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>(235, 15)</t>
+          <t>(181, 34)</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="244">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>(267, 8)</t>
+          <t>(206, 7)</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -5084,11 +5084,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>(277, 15)</t>
+          <t>(429, 0)</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="246">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>(174, 6)</t>
+          <t>(128, 6)</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -5122,11 +5122,11 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>(141, 0)</t>
+          <t>(175, 23)</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="248">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>(299, 25)</t>
+          <t>(141, 8)</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>(204, 26)</t>
+          <t>(380, 7)</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>(208, 16)</t>
+          <t>(177, 8)</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>(57, 22)</t>
+          <t>(299, 19)</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -5217,11 +5217,11 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>(195, 24)</t>
+          <t>(284, 7)</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="253">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>(294, 17)</t>
+          <t>(320, 0)</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -5255,11 +5255,11 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>(174, 28)</t>
+          <t>(179, 7)</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="255">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>(302, 12)</t>
+          <t>(230, 8)</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>(254, 14)</t>
+          <t>(252, 18)</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>(207, 0)</t>
+          <t>(212, 19)</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>(202, 13)</t>
+          <t>(272, 30)</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>(307, 10)</t>
+          <t>(114, 17)</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>(75, 0)</t>
+          <t>(106, 27)</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>(271, 18)</t>
+          <t>(347, 24)</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>(89, 20)</t>
+          <t>(251, 34)</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>(225, 30)</t>
+          <t>(458, 29)</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>(309, 7)</t>
+          <t>(152, 25)</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>(139, 6)</t>
+          <t>(291, 0)</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>(139, 0)</t>
+          <t>(400, 11)</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>(242, 30)</t>
+          <t>(336, 0)</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>(222, 7)</t>
+          <t>(285, 15)</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>(108, 0)</t>
+          <t>(370, 11)</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>(248, 20)</t>
+          <t>(397, 18)</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>(185, 9)</t>
+          <t>(262, 0)</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -5597,11 +5597,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>(121, 8)</t>
+          <t>(303, 6)</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="273">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>(236, 37)</t>
+          <t>(177, 26)</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>(173, 7)</t>
+          <t>(218, 10)</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>(308, 18)</t>
+          <t>(199, 26)</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>(232, 5)</t>
+          <t>(188, 26)</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>(150, 38)</t>
+          <t>(219, 14)</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -5711,11 +5711,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>(166, 0)</t>
+          <t>(343, 15)</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="279">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>(129, 19)</t>
+          <t>(156, 9)</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -5749,11 +5749,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>(245, 0)</t>
+          <t>(307, 16)</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="281">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>(157, 10)</t>
+          <t>(268, 12)</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>(214, 33)</t>
+          <t>(137, 19)</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>(79, 5)</t>
+          <t>(86, 29)</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>(251, 0)</t>
+          <t>(228, 26)</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>(251, 31)</t>
+          <t>(210, 21)</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>(170, 9)</t>
+          <t>(203, 0)</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="287">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>(282, 7)</t>
+          <t>(208, 9)</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>(316, 18)</t>
+          <t>(194, 24)</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>(178, 10)</t>
+          <t>(269, 8)</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>(326, 9)</t>
+          <t>(87, 17)</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>(329, 16)</t>
+          <t>(338, 22)</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>(146, 0)</t>
+          <t>(218, 0)</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -5996,7 +5996,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>(394, 16)</t>
+          <t>(269, 26)</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>(158, 8)</t>
+          <t>(155, 12)</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>(246, 9)</t>
+          <t>(262, 23)</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -6053,11 +6053,11 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>(234, 0)</t>
+          <t>(289, 0)</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="297">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>(261, 16)</t>
+          <t>(185, 14)</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -6091,11 +6091,11 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>(261, 0)</t>
+          <t>(108, 16)</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="299">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>(232, 23)</t>
+          <t>(243, 17)</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>(283, 8)</t>
+          <t>(90, 0)</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>(268, 25)</t>
+          <t>(185, 10)</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>(259, 13)</t>
+          <t>(129, 0)</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>(309, 9)</t>
+          <t>(279, 5)</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>(402, 15)</t>
+          <t>(330, 17)</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>(152, 10)</t>
+          <t>(201, 35)</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>(113, 9)</t>
+          <t>(235, 6)</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>(249, 25)</t>
+          <t>(301, 11)</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>(230, 7)</t>
+          <t>(347, 0)</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>(295, 19)</t>
+          <t>(285, 30)</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>(279, 10)</t>
+          <t>(341, 17)</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>(135, 7)</t>
+          <t>(257, 4)</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -6357,11 +6357,11 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>(137, 19)</t>
+          <t>(219, 36)</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="313">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>(149, 26)</t>
+          <t>(91, 0)</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>(361, 0)</t>
+          <t>(130, 14)</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>(222, 21)</t>
+          <t>(310, 7)</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>(305, 41)</t>
+          <t>(220, 7)</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>(216, 5)</t>
+          <t>(199, 7)</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>(194, 10)</t>
+          <t>(262, 49)</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>(407, 6)</t>
+          <t>(294, 0)</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>(214, 19)</t>
+          <t>(179, 13)</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>(187, 16)</t>
+          <t>(253, 5)</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -6547,7 +6547,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>(149, 33)</t>
+          <t>(278, 16)</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>(260, 6)</t>
+          <t>(191, 11)</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>(194, 38)</t>
+          <t>(286, 0)</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>(223, 14)</t>
+          <t>(236, 13)</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>(399, 0)</t>
+          <t>(189, 24)</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -6642,7 +6642,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>(109, 8)</t>
+          <t>(280, 0)</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>(214, 8)</t>
+          <t>(333, 7)</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -6680,11 +6680,11 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>(265, 0)</t>
+          <t>(264, 29)</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="330">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>(267, 0)</t>
+          <t>(292, 9)</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>(231, 30)</t>
+          <t>(288, 0)</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>(216, 11)</t>
+          <t>(373, 23)</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>(187, 8)</t>
+          <t>(173, 33)</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -6775,7 +6775,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>(121, 14)</t>
+          <t>(323, 7)</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>(184, 9)</t>
+          <t>(177, 17)</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>(216, 37)</t>
+          <t>(242, 9)</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>(271, 9)</t>
+          <t>(301, 17)</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>(270, 16)</t>
+          <t>(160, 0)</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>(145, 11)</t>
+          <t>(119, 12)</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>(251, 19)</t>
+          <t>(242, 11)</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>(334, 7)</t>
+          <t>(175, 19)</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>(276, 7)</t>
+          <t>(144, 0)</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>(229, 25)</t>
+          <t>(229, 30)</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>(471, 14)</t>
+          <t>(287, 0)</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>(115, 0)</t>
+          <t>(123, 16)</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -7003,7 +7003,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>(126, 16)</t>
+          <t>(123, 8)</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>(305, 7)</t>
+          <t>(359, 15)</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -7041,11 +7041,11 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>(256, 0)</t>
+          <t>(228, 11)</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="349">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>(272, 35)</t>
+          <t>(249, 12)</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>(361, 22)</t>
+          <t>(213, 0)</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>(277, 21)</t>
+          <t>(208, 10)</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>(225, 26)</t>
+          <t>(203, 8)</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>(257, 0)</t>
+          <t>(339, 15)</t>
         </is>
       </c>
       <c r="E353" t="n">
@@ -7155,11 +7155,11 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>(396, 18)</t>
+          <t>(344, 0)</t>
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="355">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>(176, 10)</t>
+          <t>(317, 0)</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>(272, 11)</t>
+          <t>(286, 27)</t>
         </is>
       </c>
       <c r="E356" t="n">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>(298, 16)</t>
+          <t>(244, 17)</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>(237, 0)</t>
+          <t>(300, 10)</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -7250,11 +7250,11 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>(267, 30)</t>
+          <t>(272, 0)</t>
         </is>
       </c>
       <c r="E359" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="360">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>(238, 29)</t>
+          <t>(293, 30)</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>(506, 0)</t>
+          <t>(257, 13)</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>(122, 27)</t>
+          <t>(147, 37)</t>
         </is>
       </c>
       <c r="E362" t="n">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>(186, 19)</t>
+          <t>(233, 5)</t>
         </is>
       </c>
       <c r="E363" t="n">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>(296, 12)</t>
+          <t>(102, 18)</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>(181, 19)</t>
+          <t>(193, 37)</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -7383,11 +7383,11 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>(173, 8)</t>
+          <t>(324, 9)</t>
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="367">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>(177, 9)</t>
+          <t>(279, 25)</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>(215, 30)</t>
+          <t>(279, 13)</t>
         </is>
       </c>
       <c r="E368" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>(147, 10)</t>
+          <t>(368, 23)</t>
         </is>
       </c>
       <c r="E369" t="n">
@@ -7459,7 +7459,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>(186, 33)</t>
+          <t>(238, 14)</t>
         </is>
       </c>
       <c r="E370" t="n">
@@ -7478,7 +7478,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>(194, 11)</t>
+          <t>(222, 8)</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>(236, 16)</t>
+          <t>(88, 33)</t>
         </is>
       </c>
       <c r="E372" t="n">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>(134, 4)</t>
+          <t>(160, 18)</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>(216, 15)</t>
+          <t>(170, 9)</t>
         </is>
       </c>
       <c r="E374" t="n">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>(152, 17)</t>
+          <t>(275, 11)</t>
         </is>
       </c>
       <c r="E375" t="n">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>(279, 13)</t>
+          <t>(81, 19)</t>
         </is>
       </c>
       <c r="E376" t="n">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>(214, 23)</t>
+          <t>(306, 15)</t>
         </is>
       </c>
       <c r="E377" t="n">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>(416, 22)</t>
+          <t>(209, 28)</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>(270, 18)</t>
+          <t>(323, 21)</t>
         </is>
       </c>
       <c r="E379" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>(188, 19)</t>
+          <t>(223, 10)</t>
         </is>
       </c>
       <c r="E380" t="n">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>(213, 18)</t>
+          <t>(243, 13)</t>
         </is>
       </c>
       <c r="E381" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>(179, 11)</t>
+          <t>(230, 18)</t>
         </is>
       </c>
       <c r="E382" t="n">
@@ -7706,7 +7706,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>(201, 24)</t>
+          <t>(277, 0)</t>
         </is>
       </c>
       <c r="E383" t="n">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>(158, 26)</t>
+          <t>(233, 10)</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>(240, 9)</t>
+          <t>(271, 13)</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>(239, 24)</t>
+          <t>(138, 15)</t>
         </is>
       </c>
       <c r="E386" t="n">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>(245, 6)</t>
+          <t>(228, 28)</t>
         </is>
       </c>
       <c r="E387" t="n">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>(239, 0)</t>
+          <t>(307, 0)</t>
         </is>
       </c>
       <c r="E388" t="n">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>(134, 5)</t>
+          <t>(424, 15)</t>
         </is>
       </c>
       <c r="E389" t="n">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>(325, 19)</t>
+          <t>(336, 10)</t>
         </is>
       </c>
       <c r="E390" t="n">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>(152, 21)</t>
+          <t>(249, 27)</t>
         </is>
       </c>
       <c r="E391" t="n">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>(176, 39)</t>
+          <t>(401, 46)</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -7896,11 +7896,11 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>(263, 16)</t>
+          <t>(225, 25)</t>
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="394">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>(198, 7)</t>
+          <t>(263, 36)</t>
         </is>
       </c>
       <c r="E394" t="n">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>(96, 4)</t>
+          <t>(264, 0)</t>
         </is>
       </c>
       <c r="E395" t="n">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>(100, 4)</t>
+          <t>(236, 25)</t>
         </is>
       </c>
       <c r="E396" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>(121, 22)</t>
+          <t>(167, 12)</t>
         </is>
       </c>
       <c r="E397" t="n">
@@ -7991,7 +7991,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>(109, 12)</t>
+          <t>(232, 8)</t>
         </is>
       </c>
       <c r="E398" t="n">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>(240, 0)</t>
+          <t>(215, 17)</t>
         </is>
       </c>
       <c r="E399" t="n">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>(190, 0)</t>
+          <t>(178, 10)</t>
         </is>
       </c>
       <c r="E400" t="n">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>(144, 10)</t>
+          <t>(125, 20)</t>
         </is>
       </c>
       <c r="E401" t="n">
@@ -8067,11 +8067,11 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>(311, 0)</t>
+          <t>(228, 20)</t>
         </is>
       </c>
       <c r="E402" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="403">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>(198, 6)</t>
+          <t>(307, 8)</t>
         </is>
       </c>
       <c r="E403" t="n">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>(166, 25)</t>
+          <t>(358, 15)</t>
         </is>
       </c>
       <c r="E404" t="n">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>(371, 8)</t>
+          <t>(237, 23)</t>
         </is>
       </c>
       <c r="E405" t="n">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>(356, 31)</t>
+          <t>(324, 5)</t>
         </is>
       </c>
       <c r="E406" t="n">
@@ -8162,7 +8162,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>(268, 18)</t>
+          <t>(297, 0)</t>
         </is>
       </c>
       <c r="E407" t="n">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>(119, 14)</t>
+          <t>(379, 27)</t>
         </is>
       </c>
       <c r="E408" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>(174, 9)</t>
+          <t>(187, 48)</t>
         </is>
       </c>
       <c r="E409" t="n">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>(292, 21)</t>
+          <t>(259, 30)</t>
         </is>
       </c>
       <c r="E410" t="n">
@@ -8238,11 +8238,11 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>(232, 0)</t>
+          <t>(241, 19)</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="412">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>(284, 8)</t>
+          <t>(310, 0)</t>
         </is>
       </c>
       <c r="E412" t="n">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>(377, 17)</t>
+          <t>(179, 11)</t>
         </is>
       </c>
       <c r="E413" t="n">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>(233, 23)</t>
+          <t>(144, 15)</t>
         </is>
       </c>
       <c r="E414" t="n">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>(232, 11)</t>
+          <t>(287, 31)</t>
         </is>
       </c>
       <c r="E415" t="n">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>(269, 9)</t>
+          <t>(172, 21)</t>
         </is>
       </c>
       <c r="E416" t="n">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>(267, 22)</t>
+          <t>(284, 14)</t>
         </is>
       </c>
       <c r="E417" t="n">
@@ -8371,11 +8371,11 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>(258, 20)</t>
+          <t>(137, 27)</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="419">
@@ -8390,11 +8390,11 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>(314, 13)</t>
+          <t>(168, 8)</t>
         </is>
       </c>
       <c r="E419" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="420">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>(298, 23)</t>
+          <t>(381, 17)</t>
         </is>
       </c>
       <c r="E420" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>(358, 16)</t>
+          <t>(145, 10)</t>
         </is>
       </c>
       <c r="E421" t="n">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>(286, 17)</t>
+          <t>(548, 8)</t>
         </is>
       </c>
       <c r="E422" t="n">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>(201, 9)</t>
+          <t>(296, 8)</t>
         </is>
       </c>
       <c r="E423" t="n">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>(223, 29)</t>
+          <t>(210, 17)</t>
         </is>
       </c>
       <c r="E424" t="n">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>(141, 17)</t>
+          <t>(204, 34)</t>
         </is>
       </c>
       <c r="E425" t="n">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>(477, 8)</t>
+          <t>(232, 5)</t>
         </is>
       </c>
       <c r="E426" t="n">
@@ -8542,11 +8542,11 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>(272, 8)</t>
+          <t>(140, 0)</t>
         </is>
       </c>
       <c r="E427" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="428">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>(252, 5)</t>
+          <t>(451, 9)</t>
         </is>
       </c>
       <c r="E428" t="n">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>(240, 6)</t>
+          <t>(146, 3)</t>
         </is>
       </c>
       <c r="E429" t="n">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>(135, 5)</t>
+          <t>(106, 19)</t>
         </is>
       </c>
       <c r="E430" t="n">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>(275, 19)</t>
+          <t>(249, 17)</t>
         </is>
       </c>
       <c r="E431" t="n">
@@ -8637,11 +8637,11 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>(240, 19)</t>
+          <t>(146, 0)</t>
         </is>
       </c>
       <c r="E432" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="433">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>(228, 28)</t>
+          <t>(177, 13)</t>
         </is>
       </c>
       <c r="E433" t="n">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>(544, 36)</t>
+          <t>(151, 0)</t>
         </is>
       </c>
       <c r="E434" t="n">
@@ -8694,11 +8694,11 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>(195, 0)</t>
+          <t>(376, 10)</t>
         </is>
       </c>
       <c r="E435" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="436">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>(428, 5)</t>
+          <t>(222, 19)</t>
         </is>
       </c>
       <c r="E436" t="n">
@@ -8732,11 +8732,11 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>(240, 10)</t>
+          <t>(254, 14)</t>
         </is>
       </c>
       <c r="E437" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="438">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>(165, 0)</t>
+          <t>(147, 11)</t>
         </is>
       </c>
       <c r="E438" t="n">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>(153, 19)</t>
+          <t>(280, 13)</t>
         </is>
       </c>
       <c r="E439" t="n">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>(141, 9)</t>
+          <t>(188, 29)</t>
         </is>
       </c>
       <c r="E440" t="n">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>(300, 25)</t>
+          <t>(271, 22)</t>
         </is>
       </c>
       <c r="E441" t="n">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>(138, 8)</t>
+          <t>(309, 12)</t>
         </is>
       </c>
       <c r="E442" t="n">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>(144, 23)</t>
+          <t>(384, 9)</t>
         </is>
       </c>
       <c r="E443" t="n">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>(379, 31)</t>
+          <t>(167, 22)</t>
         </is>
       </c>
       <c r="E444" t="n">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>(246, 27)</t>
+          <t>(178, 13)</t>
         </is>
       </c>
       <c r="E445" t="n">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>(254, 21)</t>
+          <t>(203, 40)</t>
         </is>
       </c>
       <c r="E446" t="n">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>(246, 22)</t>
+          <t>(232, 28)</t>
         </is>
       </c>
       <c r="E447" t="n">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>(288, 5)</t>
+          <t>(250, 6)</t>
         </is>
       </c>
       <c r="E448" t="n">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>(199, 22)</t>
+          <t>(172, 27)</t>
         </is>
       </c>
       <c r="E449" t="n">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>(205, 36)</t>
+          <t>(314, 17)</t>
         </is>
       </c>
       <c r="E450" t="n">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>(132, 23)</t>
+          <t>(138, 13)</t>
         </is>
       </c>
       <c r="E451" t="n">
@@ -9017,11 +9017,11 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>(282, 0)</t>
+          <t>(152, 5)</t>
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="453">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>(425, 23)</t>
+          <t>(253, 26)</t>
         </is>
       </c>
       <c r="E453" t="n">
@@ -9055,11 +9055,11 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>(280, 14)</t>
+          <t>(308, 0)</t>
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="455">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>(230, 47)</t>
+          <t>(294, 42)</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>(222, 18)</t>
+          <t>(267, 25)</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>(233, 24)</t>
+          <t>(194, 6)</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>(248, 30)</t>
+          <t>(270, 14)</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>(94, 18)</t>
+          <t>(202, 8)</t>
         </is>
       </c>
       <c r="E459" t="n">
@@ -9169,11 +9169,11 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>(125, 10)</t>
+          <t>(211, 15)</t>
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="461">
@@ -9188,11 +9188,11 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>(163, 7)</t>
+          <t>(317, 18)</t>
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="462">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>(162, 17)</t>
+          <t>(291, 15)</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>(104, 17)</t>
+          <t>(225, 24)</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>(292, 7)</t>
+          <t>(178, 22)</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>(443, 26)</t>
+          <t>(52, 9)</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -9283,11 +9283,11 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>(312, 9)</t>
+          <t>(168, 17)</t>
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="467">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>(326, 14)</t>
+          <t>(145, 16)</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>(350, 0)</t>
+          <t>(87, 25)</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>(152, 6)</t>
+          <t>(162, 38)</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>(87, 20)</t>
+          <t>(235, 19)</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>(323, 17)</t>
+          <t>(121, 22)</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>(301, 21)</t>
+          <t>(184, 31)</t>
         </is>
       </c>
       <c r="E472" t="n">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>(285, 18)</t>
+          <t>(304, 18)</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>(302, 38)</t>
+          <t>(192, 27)</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -9454,7 +9454,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>(347, 51)</t>
+          <t>(280, 10)</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>(329, 18)</t>
+          <t>(409, 20)</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>(166, 12)</t>
+          <t>(172, 11)</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>(166, 16)</t>
+          <t>(368, 14)</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>(191, 8)</t>
+          <t>(221, 33)</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>(328, 19)</t>
+          <t>(239, 19)</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>(253, 12)</t>
+          <t>(195, 12)</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>(264, 39)</t>
+          <t>(320, 66)</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -9606,11 +9606,11 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>(232, 6)</t>
+          <t>(234, 27)</t>
         </is>
       </c>
       <c r="E483" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="484">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>(309, 23)</t>
+          <t>(291, 24)</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>(92, 17)</t>
+          <t>(175, 24)</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -9663,11 +9663,11 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>(156, 0)</t>
+          <t>(139, 10)</t>
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="487">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>(290, 41)</t>
+          <t>(167, 0)</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -9701,11 +9701,11 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>(163, 0)</t>
+          <t>(225, 8)</t>
         </is>
       </c>
       <c r="E488" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="489">
@@ -9720,7 +9720,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>(125, 9)</t>
+          <t>(186, 27)</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>(184, 27)</t>
+          <t>(391, 31)</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>(299, 18)</t>
+          <t>(208, 29)</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>(175, 9)</t>
+          <t>(230, 0)</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>(232, 50)</t>
+          <t>(190, 20)</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -9815,7 +9815,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>(234, 8)</t>
+          <t>(332, 17)</t>
         </is>
       </c>
       <c r="E494" t="n">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>(134, 9)</t>
+          <t>(103, 17)</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>(199, 8)</t>
+          <t>(237, 30)</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>(59, 9)</t>
+          <t>(214, 16)</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -9891,11 +9891,11 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>(200, 16)</t>
+          <t>(156, 29)</t>
         </is>
       </c>
       <c r="E498" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="499">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>(180, 5)</t>
+          <t>(260, 0)</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>(270, 8)</t>
+          <t>(89, 12)</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>(345, 12)</t>
+          <t>(224, 49)</t>
         </is>
       </c>
       <c r="E501" t="n">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>(198, 24)</t>
+          <t>(322, 28)</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>(113, 20)</t>
+          <t>(173, 9)</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>(185, 21)</t>
+          <t>(439, 16)</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -10024,11 +10024,11 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>(269, 8)</t>
+          <t>(185, 18)</t>
         </is>
       </c>
       <c r="E505" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="506">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>(344, 15)</t>
+          <t>(92, 16)</t>
         </is>
       </c>
       <c r="E506" t="n">
@@ -10062,7 +10062,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>(204, 5)</t>
+          <t>(175, 15)</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>(281, 6)</t>
+          <t>(298, 7)</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>(296, 28)</t>
+          <t>(294, 18)</t>
         </is>
       </c>
       <c r="E509" t="n">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>(331, 10)</t>
+          <t>(452, 26)</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>(407, 0)</t>
+          <t>(224, 27)</t>
         </is>
       </c>
       <c r="E511" t="n">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>(222, 25)</t>
+          <t>(293, 42)</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>(88, 7)</t>
+          <t>(182, 20)</t>
         </is>
       </c>
       <c r="E513" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>(201, 26)</t>
+          <t>(317, 34)</t>
         </is>
       </c>
       <c r="E514" t="n">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>(381, 28)</t>
+          <t>(308, 17)</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>(177, 15)</t>
+          <t>(92, 8)</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>(314, 17)</t>
+          <t>(352, 9)</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>(305, 10)</t>
+          <t>(189, 7)</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>(194, 26)</t>
+          <t>(323, 24)</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>(204, 15)</t>
+          <t>(206, 24)</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>(301, 24)</t>
+          <t>(215, 33)</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>(174, 0)</t>
+          <t>(374, 14)</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>(155, 0)</t>
+          <t>(208, 24)</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>(244, 23)</t>
+          <t>(271, 0)</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>(142, 49)</t>
+          <t>(496, 29)</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>(200, 0)</t>
+          <t>(284, 8)</t>
         </is>
       </c>
       <c r="E526" t="n">
@@ -10442,11 +10442,11 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>(201, 0)</t>
+          <t>(302, 24)</t>
         </is>
       </c>
       <c r="E527" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="528">
@@ -10461,11 +10461,11 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>(286, 15)</t>
+          <t>(356, 9)</t>
         </is>
       </c>
       <c r="E528" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="529">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>(301, 7)</t>
+          <t>(337, 23)</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>(203, 23)</t>
+          <t>(265, 26)</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -10518,11 +10518,11 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>(167, 0)</t>
+          <t>(213, 22)</t>
         </is>
       </c>
       <c r="E531" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="532">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>(254, 12)</t>
+          <t>(204, 0)</t>
         </is>
       </c>
       <c r="E532" t="n">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>(302, 8)</t>
+          <t>(161, 30)</t>
         </is>
       </c>
       <c r="E533" t="n">
@@ -10575,7 +10575,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>(341, 0)</t>
+          <t>(320, 11)</t>
         </is>
       </c>
       <c r="E534" t="n">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>(197, 7)</t>
+          <t>(104, 13)</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>(268, 7)</t>
+          <t>(275, 15)</t>
         </is>
       </c>
       <c r="E536" t="n">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>(392, 0)</t>
+          <t>(233, 31)</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>(287, 9)</t>
+          <t>(277, 15)</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -10670,11 +10670,11 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>(170, 0)</t>
+          <t>(173, 5)</t>
         </is>
       </c>
       <c r="E539" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="540">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>(294, 7)</t>
+          <t>(146, 21)</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>(358, 8)</t>
+          <t>(218, 34)</t>
         </is>
       </c>
       <c r="E541" t="n">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>(362, 0)</t>
+          <t>(263, 8)</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>(378, 8)</t>
+          <t>(175, 18)</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>(261, 17)</t>
+          <t>(232, 6)</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>(339, 31)</t>
+          <t>(326, 54)</t>
         </is>
       </c>
       <c r="E545" t="n">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>(212, 8)</t>
+          <t>(164, 19)</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -10822,11 +10822,11 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>(207, 9)</t>
+          <t>(350, 28)</t>
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="548">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>(337, 13)</t>
+          <t>(382, 11)</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>(313, 13)</t>
+          <t>(170, 18)</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -10879,7 +10879,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>(259, 19)</t>
+          <t>(110, 17)</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>(292, 4)</t>
+          <t>(276, 14)</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>(294, 15)</t>
+          <t>(143, 19)</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>(309, 20)</t>
+          <t>(333, 9)</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -10955,11 +10955,11 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>(334, 24)</t>
+          <t>(176, 0)</t>
         </is>
       </c>
       <c r="E554" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="555">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>(260, 13)</t>
+          <t>(252, 37)</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -10993,11 +10993,11 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>(315, 8)</t>
+          <t>(294, 32)</t>
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="557">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>(174, 37)</t>
+          <t>(268, 38)</t>
         </is>
       </c>
       <c r="E557" t="n">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>(259, 9)</t>
+          <t>(111, 0)</t>
         </is>
       </c>
       <c r="E558" t="n">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>(91, 38)</t>
+          <t>(305, 27)</t>
         </is>
       </c>
       <c r="E559" t="n">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>(190, 16)</t>
+          <t>(397, 13)</t>
         </is>
       </c>
       <c r="E560" t="n">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>(193, 13)</t>
+          <t>(200, 9)</t>
         </is>
       </c>
       <c r="E561" t="n">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>(113, 33)</t>
+          <t>(302, 22)</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>(283, 35)</t>
+          <t>(236, 26)</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>(248, 33)</t>
+          <t>(100, 16)</t>
         </is>
       </c>
       <c r="E564" t="n">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>(116, 8)</t>
+          <t>(213, 6)</t>
         </is>
       </c>
       <c r="E565" t="n">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>(320, 27)</t>
+          <t>(182, 10)</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>(179, 14)</t>
+          <t>(256, 9)</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>(143, 9)</t>
+          <t>(329, 0)</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>(255, 0)</t>
+          <t>(511, 31)</t>
         </is>
       </c>
       <c r="E569" t="n">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>(201, 15)</t>
+          <t>(299, 28)</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>(308, 26)</t>
+          <t>(341, 16)</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>(227, 15)</t>
+          <t>(329, 19)</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>(286, 18)</t>
+          <t>(347, 18)</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>(173, 21)</t>
+          <t>(221, 13)</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>(220, 20)</t>
+          <t>(55, 0)</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>(253, 18)</t>
+          <t>(259, 8)</t>
         </is>
       </c>
       <c r="E576" t="n">
@@ -11392,11 +11392,11 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>(229, 9)</t>
+          <t>(153, 6)</t>
         </is>
       </c>
       <c r="E577" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="578">
@@ -11411,11 +11411,11 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>(242, 57)</t>
+          <t>(201, 11)</t>
         </is>
       </c>
       <c r="E578" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="579">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>(112, 39)</t>
+          <t>(60, 0)</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -11449,11 +11449,11 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>(230, 26)</t>
+          <t>(262, 30)</t>
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="581">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>(138, 13)</t>
+          <t>(114, 16)</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>(348, 24)</t>
+          <t>(228, 8)</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>(335, 24)</t>
+          <t>(247, 23)</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>(222, 4)</t>
+          <t>(395, 19)</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>(195, 10)</t>
+          <t>(238, 15)</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>(144, 26)</t>
+          <t>(315, 36)</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>(242, 9)</t>
+          <t>(210, 12)</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -11601,11 +11601,11 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>(218, 0)</t>
+          <t>(263, 0)</t>
         </is>
       </c>
       <c r="E588" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="589">
@@ -11620,11 +11620,11 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>(215, 0)</t>
+          <t>(274, 7)</t>
         </is>
       </c>
       <c r="E589" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="590">
@@ -11639,7 +11639,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>(317, 14)</t>
+          <t>(182, 25)</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>(208, 19)</t>
+          <t>(231, 28)</t>
         </is>
       </c>
       <c r="E591" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>(119, 32)</t>
+          <t>(336, 22)</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>(142, 8)</t>
+          <t>(78, 7)</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>(360, 14)</t>
+          <t>(187, 16)</t>
         </is>
       </c>
       <c r="E594" t="n">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>(245, 11)</t>
+          <t>(347, 11)</t>
         </is>
       </c>
       <c r="E595" t="n">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>(154, 6)</t>
+          <t>(331, 6)</t>
         </is>
       </c>
       <c r="E596" t="n">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>(406, 9)</t>
+          <t>(406, 24)</t>
         </is>
       </c>
       <c r="E597" t="n">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>(200, 27)</t>
+          <t>(185, 19)</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>(170, 39)</t>
+          <t>(298, 54)</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>(168, 7)</t>
+          <t>(275, 9)</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>(339, 19)</t>
+          <t>(112, 0)</t>
         </is>
       </c>
       <c r="E601" t="n">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>(303, 18)</t>
+          <t>(156, 18)</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>(81, 22)</t>
+          <t>(91, 34)</t>
         </is>
       </c>
       <c r="E603" t="n">
@@ -11905,7 +11905,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>(322, 33)</t>
+          <t>(118, 36)</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -11924,7 +11924,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>(272, 20)</t>
+          <t>(107, 10)</t>
         </is>
       </c>
       <c r="E605" t="n">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>(228, 12)</t>
+          <t>(249, 7)</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -11962,11 +11962,11 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>(144, 20)</t>
+          <t>(226, 0)</t>
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="608">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>(206, 8)</t>
+          <t>(345, 37)</t>
         </is>
       </c>
       <c r="E608" t="n">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>(252, 0)</t>
+          <t>(175, 0)</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>(375, 0)</t>
+          <t>(82, 0)</t>
         </is>
       </c>
       <c r="E610" t="n">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>(228, 39)</t>
+          <t>(359, 7)</t>
         </is>
       </c>
       <c r="E611" t="n">
@@ -12057,11 +12057,11 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>(197, 15)</t>
+          <t>(277, 6)</t>
         </is>
       </c>
       <c r="E612" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="613">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>(277, 9)</t>
+          <t>(304, 16)</t>
         </is>
       </c>
       <c r="E613" t="n">
@@ -12095,7 +12095,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>(297, 16)</t>
+          <t>(268, 40)</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>(203, 18)</t>
+          <t>(163, 5)</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>(178, 14)</t>
+          <t>(238, 28)</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>(285, 10)</t>
+          <t>(239, 16)</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>(303, 0)</t>
+          <t>(209, 20)</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>(217, 11)</t>
+          <t>(443, 19)</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>(222, 8)</t>
+          <t>(260, 30)</t>
         </is>
       </c>
       <c r="E620" t="n">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>(188, 35)</t>
+          <t>(348, 9)</t>
         </is>
       </c>
       <c r="E621" t="n">
@@ -12247,7 +12247,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>(149, 36)</t>
+          <t>(299, 0)</t>
         </is>
       </c>
       <c r="E622" t="n">
@@ -12266,7 +12266,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>(304, 23)</t>
+          <t>(240, 0)</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>(199, 0)</t>
+          <t>(88, 45)</t>
         </is>
       </c>
       <c r="E624" t="n">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>(359, 38)</t>
+          <t>(137, 0)</t>
         </is>
       </c>
       <c r="E625" t="n">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>(173, 18)</t>
+          <t>(317, 21)</t>
         </is>
       </c>
       <c r="E626" t="n">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>(109, 27)</t>
+          <t>(313, 14)</t>
         </is>
       </c>
       <c r="E627" t="n">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>(91, 18)</t>
+          <t>(112, 34)</t>
         </is>
       </c>
       <c r="E628" t="n">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>(145, 10)</t>
+          <t>(196, 34)</t>
         </is>
       </c>
       <c r="E629" t="n">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>(84, 13)</t>
+          <t>(333, 19)</t>
         </is>
       </c>
       <c r="E630" t="n">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>(164, 29)</t>
+          <t>(338, 14)</t>
         </is>
       </c>
       <c r="E631" t="n">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>(145, 27)</t>
+          <t>(268, 21)</t>
         </is>
       </c>
       <c r="E632" t="n">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>(192, 18)</t>
+          <t>(283, 22)</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -12475,11 +12475,11 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>(156, 15)</t>
+          <t>(192, 17)</t>
         </is>
       </c>
       <c r="E634" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="635">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>(286, 16)</t>
+          <t>(237, 16)</t>
         </is>
       </c>
       <c r="E635" t="n">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>(176, 6)</t>
+          <t>(328, 17)</t>
         </is>
       </c>
       <c r="E636" t="n">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>(264, 21)</t>
+          <t>(232, 11)</t>
         </is>
       </c>
       <c r="E637" t="n">
@@ -12551,11 +12551,11 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>(235, 18)</t>
+          <t>(230, 7)</t>
         </is>
       </c>
       <c r="E638" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="639">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>(156, 17)</t>
+          <t>(363, 11)</t>
         </is>
       </c>
       <c r="E639" t="n">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>(341, 26)</t>
+          <t>(322, 21)</t>
         </is>
       </c>
       <c r="E640" t="n">
@@ -12608,7 +12608,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>(313, 30)</t>
+          <t>(92, 39)</t>
         </is>
       </c>
       <c r="E641" t="n">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>(135, 9)</t>
+          <t>(317, 36)</t>
         </is>
       </c>
       <c r="E642" t="n">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>(175, 19)</t>
+          <t>(32, 32)</t>
         </is>
       </c>
       <c r="E643" t="n">
@@ -12665,11 +12665,11 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>(130, 9)</t>
+          <t>(225, 10)</t>
         </is>
       </c>
       <c r="E644" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="645">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>(239, 22)</t>
+          <t>(316, 9)</t>
         </is>
       </c>
       <c r="E645" t="n">
@@ -12703,11 +12703,11 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>(282, 18)</t>
+          <t>(294, 7)</t>
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="647">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>(145, 17)</t>
+          <t>(443, 6)</t>
         </is>
       </c>
       <c r="E647" t="n">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>(151, 15)</t>
+          <t>(173, 16)</t>
         </is>
       </c>
       <c r="E648" t="n">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>(157, 0)</t>
+          <t>(170, 22)</t>
         </is>
       </c>
       <c r="E649" t="n">
@@ -12779,7 +12779,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>(250, 9)</t>
+          <t>(164, 31)</t>
         </is>
       </c>
       <c r="E650" t="n">
@@ -12798,7 +12798,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>(340, 31)</t>
+          <t>(107, 13)</t>
         </is>
       </c>
       <c r="E651" t="n">
@@ -12817,11 +12817,11 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>(412, 18)</t>
+          <t>(322, 0)</t>
         </is>
       </c>
       <c r="E652" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="653">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>(174, 43)</t>
+          <t>(212, 15)</t>
         </is>
       </c>
       <c r="E653" t="n">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>(288, 0)</t>
+          <t>(195, 28)</t>
         </is>
       </c>
       <c r="E654" t="n">
@@ -12874,11 +12874,11 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>(310, 0)</t>
+          <t>(222, 0)</t>
         </is>
       </c>
       <c r="E655" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="656">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>(218, 11)</t>
+          <t>(205, 9)</t>
         </is>
       </c>
       <c r="E656" t="n">
@@ -12912,11 +12912,11 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>(294, 0)</t>
+          <t>(208, 34)</t>
         </is>
       </c>
       <c r="E657" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="658">
@@ -12931,11 +12931,11 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>(275, 0)</t>
+          <t>(146, 8)</t>
         </is>
       </c>
       <c r="E658" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="659">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>(363, 6)</t>
+          <t>(370, 22)</t>
         </is>
       </c>
       <c r="E659" t="n">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>(241, 19)</t>
+          <t>(124, 0)</t>
         </is>
       </c>
       <c r="E660" t="n">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>(357, 18)</t>
+          <t>(184, 19)</t>
         </is>
       </c>
       <c r="E661" t="n">
@@ -13007,7 +13007,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>(142, 34)</t>
+          <t>(227, 15)</t>
         </is>
       </c>
       <c r="E662" t="n">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>(150, 0)</t>
+          <t>(211, 5)</t>
         </is>
       </c>
       <c r="E663" t="n">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>(148, 28)</t>
+          <t>(240, 15)</t>
         </is>
       </c>
       <c r="E664" t="n">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>(144, 6)</t>
+          <t>(185, 13)</t>
         </is>
       </c>
       <c r="E665" t="n">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>(314, 32)</t>
+          <t>(170, 4)</t>
         </is>
       </c>
       <c r="E666" t="n">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>(262, 20)</t>
+          <t>(127, 26)</t>
         </is>
       </c>
       <c r="E667" t="n">
@@ -13121,11 +13121,11 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>(309, 0)</t>
+          <t>(264, 18)</t>
         </is>
       </c>
       <c r="E668" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="669">
@@ -13140,7 +13140,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>(218, 16)</t>
+          <t>(138, 12)</t>
         </is>
       </c>
       <c r="E669" t="n">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>(349, 0)</t>
+          <t>(321, 37)</t>
         </is>
       </c>
       <c r="E670" t="n">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>(284, 18)</t>
+          <t>(92, 14)</t>
         </is>
       </c>
       <c r="E671" t="n">
@@ -13197,7 +13197,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>(281, 18)</t>
+          <t>(215, 8)</t>
         </is>
       </c>
       <c r="E672" t="n">
@@ -13216,11 +13216,11 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>(298, 18)</t>
+          <t>(149, 30)</t>
         </is>
       </c>
       <c r="E673" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="674">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>(270, 35)</t>
+          <t>(118, 21)</t>
         </is>
       </c>
       <c r="E674" t="n">
@@ -13254,7 +13254,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>(216, 10)</t>
+          <t>(376, 15)</t>
         </is>
       </c>
       <c r="E675" t="n">
@@ -13273,11 +13273,11 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>(182, 32)</t>
+          <t>(207, 0)</t>
         </is>
       </c>
       <c r="E676" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="677">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>(243, 12)</t>
+          <t>(340, 8)</t>
         </is>
       </c>
       <c r="E677" t="n">
@@ -13311,11 +13311,11 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>(279, 31)</t>
+          <t>(235, 26)</t>
         </is>
       </c>
       <c r="E678" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="679">
@@ -13330,7 +13330,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>(328, 25)</t>
+          <t>(89, 23)</t>
         </is>
       </c>
       <c r="E679" t="n">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>(341, 9)</t>
+          <t>(173, 31)</t>
         </is>
       </c>
       <c r="E680" t="n">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>(103, 4)</t>
+          <t>(226, 11)</t>
         </is>
       </c>
       <c r="E681" t="n">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>(283, 24)</t>
+          <t>(353, 19)</t>
         </is>
       </c>
       <c r="E682" t="n">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>(139, 10)</t>
+          <t>(120, 28)</t>
         </is>
       </c>
       <c r="E683" t="n">
@@ -13425,7 +13425,7 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>(189, 7)</t>
+          <t>(225, 18)</t>
         </is>
       </c>
       <c r="E684" t="n">
@@ -13444,7 +13444,7 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>(278, 16)</t>
+          <t>(349, 5)</t>
         </is>
       </c>
       <c r="E685" t="n">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>(278, 8)</t>
+          <t>(142, 31)</t>
         </is>
       </c>
       <c r="E686" t="n">
@@ -13482,7 +13482,7 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>(342, 32)</t>
+          <t>(346, 35)</t>
         </is>
       </c>
       <c r="E687" t="n">
@@ -13501,7 +13501,7 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>(290, 0)</t>
+          <t>(133, 35)</t>
         </is>
       </c>
       <c r="E688" t="n">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>(222, 0)</t>
+          <t>(252, 17)</t>
         </is>
       </c>
       <c r="E689" t="n">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>(214, 11)</t>
+          <t>(169, 24)</t>
         </is>
       </c>
       <c r="E690" t="n">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>(352, 6)</t>
+          <t>(156, 8)</t>
         </is>
       </c>
       <c r="E691" t="n">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>(142, 35)</t>
+          <t>(88, 6)</t>
         </is>
       </c>
       <c r="E692" t="n">
@@ -13596,11 +13596,11 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>(172, 0)</t>
+          <t>(200, 0)</t>
         </is>
       </c>
       <c r="E693" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="694">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>(267, 5)</t>
+          <t>(226, 27)</t>
         </is>
       </c>
       <c r="E694" t="n">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>(287, 0)</t>
+          <t>(173, 46)</t>
         </is>
       </c>
       <c r="E695" t="n">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>(199, 13)</t>
+          <t>(201, 42)</t>
         </is>
       </c>
       <c r="E696" t="n">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>(147, 9)</t>
+          <t>(234, 17)</t>
         </is>
       </c>
       <c r="E697" t="n">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>(141, 11)</t>
+          <t>(197, 30)</t>
         </is>
       </c>
       <c r="E698" t="n">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>(84, 9)</t>
+          <t>(251, 0)</t>
         </is>
       </c>
       <c r="E699" t="n">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>(324, 19)</t>
+          <t>(163, 59)</t>
         </is>
       </c>
       <c r="E700" t="n">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>(350, 34)</t>
+          <t>(412, 10)</t>
         </is>
       </c>
       <c r="E701" t="n">
@@ -13767,7 +13767,7 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>(351, 0)</t>
+          <t>(350, 20)</t>
         </is>
       </c>
       <c r="E702" t="n">
@@ -13786,7 +13786,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>(385, 0)</t>
+          <t>(324, 16)</t>
         </is>
       </c>
       <c r="E703" t="n">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>(338, 39)</t>
+          <t>(129, 30)</t>
         </is>
       </c>
       <c r="E704" t="n">
@@ -13824,7 +13824,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>(234, 36)</t>
+          <t>(148, 53)</t>
         </is>
       </c>
       <c r="E705" t="n">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>(143, 19)</t>
+          <t>(214, 28)</t>
         </is>
       </c>
       <c r="E706" t="n">
@@ -13862,7 +13862,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>(314, 24)</t>
+          <t>(213, 5)</t>
         </is>
       </c>
       <c r="E707" t="n">
@@ -13881,11 +13881,11 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>(144, 19)</t>
+          <t>(186, 17)</t>
         </is>
       </c>
       <c r="E708" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="709">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>(96, 17)</t>
+          <t>(162, 31)</t>
         </is>
       </c>
       <c r="E709" t="n">
@@ -13919,7 +13919,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>(381, 0)</t>
+          <t>(227, 12)</t>
         </is>
       </c>
       <c r="E710" t="n">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>(217, 7)</t>
+          <t>(220, 0)</t>
         </is>
       </c>
       <c r="E711" t="n">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>(285, 27)</t>
+          <t>(267, 7)</t>
         </is>
       </c>
       <c r="E712" t="n">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>(195, 15)</t>
+          <t>(247, 14)</t>
         </is>
       </c>
       <c r="E713" t="n">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>(204, 57)</t>
+          <t>(204, 27)</t>
         </is>
       </c>
       <c r="E714" t="n">
@@ -14014,7 +14014,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>(250, 20)</t>
+          <t>(363, 20)</t>
         </is>
       </c>
       <c r="E715" t="n">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>(238, 0)</t>
+          <t>(157, 5)</t>
         </is>
       </c>
       <c r="E716" t="n">
@@ -14052,7 +14052,7 @@
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>(113, 29)</t>
+          <t>(285, 9)</t>
         </is>
       </c>
       <c r="E717" t="n">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>(237, 8)</t>
+          <t>(202, 31)</t>
         </is>
       </c>
       <c r="E718" t="n">
@@ -14090,7 +14090,7 @@
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>(323, 0)</t>
+          <t>(283, 4)</t>
         </is>
       </c>
       <c r="E719" t="n">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>(89, 0)</t>
+          <t>(281, 9)</t>
         </is>
       </c>
       <c r="E720" t="n">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>(269, 24)</t>
+          <t>(285, 18)</t>
         </is>
       </c>
       <c r="E721" t="n">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>(236, 0)</t>
+          <t>(235, 27)</t>
         </is>
       </c>
       <c r="E722" t="n">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>(87, 12)</t>
+          <t>(211, 18)</t>
         </is>
       </c>
       <c r="E723" t="n">
@@ -14185,11 +14185,11 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>(149, 0)</t>
+          <t>(317, 29)</t>
         </is>
       </c>
       <c r="E724" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="725">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>(268, 21)</t>
+          <t>(345, 33)</t>
         </is>
       </c>
       <c r="E725" t="n">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>(273, 30)</t>
+          <t>(143, 5)</t>
         </is>
       </c>
       <c r="E726" t="n">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>(254, 51)</t>
+          <t>(233, 9)</t>
         </is>
       </c>
       <c r="E727" t="n">
@@ -14261,7 +14261,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>(276, 19)</t>
+          <t>(197, 16)</t>
         </is>
       </c>
       <c r="E728" t="n">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>(199, 27)</t>
+          <t>(141, 9)</t>
         </is>
       </c>
       <c r="E729" t="n">
@@ -14299,7 +14299,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>(248, 0)</t>
+          <t>(196, 24)</t>
         </is>
       </c>
       <c r="E730" t="n">
@@ -14318,7 +14318,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>(239, 30)</t>
+          <t>(266, 18)</t>
         </is>
       </c>
       <c r="E731" t="n">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>(206, 7)</t>
+          <t>(363, 27)</t>
         </is>
       </c>
       <c r="E732" t="n">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>(145, 15)</t>
+          <t>(224, 9)</t>
         </is>
       </c>
       <c r="E733" t="n">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>(268, 0)</t>
+          <t>(250, 32)</t>
         </is>
       </c>
       <c r="E734" t="n">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>(266, 26)</t>
+          <t>(190, 15)</t>
         </is>
       </c>
       <c r="E735" t="n">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>(302, 7)</t>
+          <t>(310, 27)</t>
         </is>
       </c>
       <c r="E736" t="n">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>(103, 30)</t>
+          <t>(231, 18)</t>
         </is>
       </c>
       <c r="E737" t="n">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>(226, 12)</t>
+          <t>(151, 5)</t>
         </is>
       </c>
       <c r="E738" t="n">
@@ -14470,11 +14470,11 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>(193, 5)</t>
+          <t>(199, 20)</t>
         </is>
       </c>
       <c r="E739" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="740">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>(243, 18)</t>
+          <t>(175, 14)</t>
         </is>
       </c>
       <c r="E740" t="n">
@@ -14508,7 +14508,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>(300, 0)</t>
+          <t>(231, 5)</t>
         </is>
       </c>
       <c r="E741" t="n">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>(220, 0)</t>
+          <t>(331, 22)</t>
         </is>
       </c>
       <c r="E742" t="n">
@@ -14546,7 +14546,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>(293, 11)</t>
+          <t>(234, 22)</t>
         </is>
       </c>
       <c r="E743" t="n">
@@ -14565,7 +14565,7 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>(150, 16)</t>
+          <t>(271, 5)</t>
         </is>
       </c>
       <c r="E744" t="n">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>(184, 0)</t>
+          <t>(300, 26)</t>
         </is>
       </c>
       <c r="E745" t="n">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>(321, 7)</t>
+          <t>(408, 10)</t>
         </is>
       </c>
       <c r="E746" t="n">
@@ -14622,7 +14622,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>(204, 8)</t>
+          <t>(202, 15)</t>
         </is>
       </c>
       <c r="E747" t="n">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>(367, 59)</t>
+          <t>(184, 29)</t>
         </is>
       </c>
       <c r="E748" t="n">
@@ -14660,7 +14660,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>(209, 0)</t>
+          <t>(321, 5)</t>
         </is>
       </c>
       <c r="E749" t="n">
@@ -14679,11 +14679,11 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>(235, 0)</t>
+          <t>(137, 18)</t>
         </is>
       </c>
       <c r="E750" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="751">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>(227, 25)</t>
+          <t>(171, 9)</t>
         </is>
       </c>
       <c r="E751" t="n">
@@ -14717,11 +14717,11 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>(103, 6)</t>
+          <t>(280, 8)</t>
         </is>
       </c>
       <c r="E752" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="753">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>(429, 20)</t>
+          <t>(354, 0)</t>
         </is>
       </c>
       <c r="E753" t="n">
@@ -14755,7 +14755,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>(245, 41)</t>
+          <t>(201, 36)</t>
         </is>
       </c>
       <c r="E754" t="n">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>(247, 8)</t>
+          <t>(83, 5)</t>
         </is>
       </c>
       <c r="E755" t="n">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>(283, 29)</t>
+          <t>(346, 50)</t>
         </is>
       </c>
       <c r="E756" t="n">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>(268, 9)</t>
+          <t>(207, 6)</t>
         </is>
       </c>
       <c r="E757" t="n">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>(171, 20)</t>
+          <t>(86, 21)</t>
         </is>
       </c>
       <c r="E758" t="n">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>(151, 11)</t>
+          <t>(275, 0)</t>
         </is>
       </c>
       <c r="E759" t="n">
@@ -14869,7 +14869,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>(300, 19)</t>
+          <t>(185, 17)</t>
         </is>
       </c>
       <c r="E760" t="n">
@@ -14888,7 +14888,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>(251, 7)</t>
+          <t>(243, 0)</t>
         </is>
       </c>
       <c r="E761" t="n">
@@ -14907,7 +14907,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>(241, 30)</t>
+          <t>(238, 20)</t>
         </is>
       </c>
       <c r="E762" t="n">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>(406, 0)</t>
+          <t>(139, 18)</t>
         </is>
       </c>
       <c r="E763" t="n">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>(206, 28)</t>
+          <t>(310, 10)</t>
         </is>
       </c>
       <c r="E764" t="n">
@@ -14964,7 +14964,7 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>(341, 20)</t>
+          <t>(320, 42)</t>
         </is>
       </c>
       <c r="E765" t="n">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>(230, 18)</t>
+          <t>(272, 9)</t>
         </is>
       </c>
       <c r="E766" t="n">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>(229, 11)</t>
+          <t>(160, 15)</t>
         </is>
       </c>
       <c r="E767" t="n">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>(345, 15)</t>
+          <t>(328, 38)</t>
         </is>
       </c>
       <c r="E768" t="n">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>(207, 20)</t>
+          <t>(187, 20)</t>
         </is>
       </c>
       <c r="E769" t="n">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>(174, 12)</t>
+          <t>(130, 17)</t>
         </is>
       </c>
       <c r="E770" t="n">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>(113, 10)</t>
+          <t>(201, 19)</t>
         </is>
       </c>
       <c r="E771" t="n">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>(360, 17)</t>
+          <t>(369, 5)</t>
         </is>
       </c>
       <c r="E772" t="n">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>(227, 13)</t>
+          <t>(195, 31)</t>
         </is>
       </c>
       <c r="E773" t="n">
@@ -15135,7 +15135,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>(314, 5)</t>
+          <t>(214, 7)</t>
         </is>
       </c>
       <c r="E774" t="n">
@@ -15154,7 +15154,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>(298, 34)</t>
+          <t>(363, 29)</t>
         </is>
       </c>
       <c r="E775" t="n">
@@ -15173,7 +15173,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>(280, 23)</t>
+          <t>(362, 27)</t>
         </is>
       </c>
       <c r="E776" t="n">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>(180, 0)</t>
+          <t>(236, 0)</t>
         </is>
       </c>
       <c r="E777" t="n">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>(169, 19)</t>
+          <t>(227, 0)</t>
         </is>
       </c>
       <c r="E778" t="n">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>(402, 16)</t>
+          <t>(259, 7)</t>
         </is>
       </c>
       <c r="E779" t="n">
@@ -15249,7 +15249,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>(151, 46)</t>
+          <t>(228, 7)</t>
         </is>
       </c>
       <c r="E780" t="n">
@@ -15268,7 +15268,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>(317, 20)</t>
+          <t>(196, 0)</t>
         </is>
       </c>
       <c r="E781" t="n">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>(348, 20)</t>
+          <t>(209, 19)</t>
         </is>
       </c>
       <c r="E782" t="n">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>(191, 22)</t>
+          <t>(302, 39)</t>
         </is>
       </c>
       <c r="E783" t="n">
@@ -15325,7 +15325,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>(232, 9)</t>
+          <t>(261, 11)</t>
         </is>
       </c>
       <c r="E784" t="n">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>(222, 11)</t>
+          <t>(117, 6)</t>
         </is>
       </c>
       <c r="E785" t="n">
@@ -15363,7 +15363,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>(230, 12)</t>
+          <t>(83, 19)</t>
         </is>
       </c>
       <c r="E786" t="n">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>(148, 4)</t>
+          <t>(321, 0)</t>
         </is>
       </c>
       <c r="E787" t="n">
@@ -15401,7 +15401,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>(219, 22)</t>
+          <t>(175, 27)</t>
         </is>
       </c>
       <c r="E788" t="n">
@@ -15420,7 +15420,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>(54, 25)</t>
+          <t>(256, 28)</t>
         </is>
       </c>
       <c r="E789" t="n">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>(467, 0)</t>
+          <t>(280, 20)</t>
         </is>
       </c>
       <c r="E790" t="n">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>(300, 9)</t>
+          <t>(307, 26)</t>
         </is>
       </c>
       <c r="E791" t="n">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>(547, 0)</t>
+          <t>(202, 5)</t>
         </is>
       </c>
       <c r="E792" t="n">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>(311, 7)</t>
+          <t>(189, 23)</t>
         </is>
       </c>
       <c r="E793" t="n">
@@ -15515,7 +15515,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>(266, 16)</t>
+          <t>(253, 0)</t>
         </is>
       </c>
       <c r="E794" t="n">
@@ -15534,7 +15534,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>(169, 0)</t>
+          <t>(366, 8)</t>
         </is>
       </c>
       <c r="E795" t="n">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>(197, 24)</t>
+          <t>(368, 8)</t>
         </is>
       </c>
       <c r="E796" t="n">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>(341, 8)</t>
+          <t>(60, 30)</t>
         </is>
       </c>
       <c r="E797" t="n">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>(319, 7)</t>
+          <t>(288, 8)</t>
         </is>
       </c>
       <c r="E798" t="n">
@@ -15610,7 +15610,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>(334, 9)</t>
+          <t>(271, 25)</t>
         </is>
       </c>
       <c r="E799" t="n">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>(308, 0)</t>
+          <t>(238, 30)</t>
         </is>
       </c>
       <c r="E800" t="n">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>(202, 21)</t>
+          <t>(261, 0)</t>
         </is>
       </c>
       <c r="E801" t="n">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>(146, 37)</t>
+          <t>(267, 8)</t>
         </is>
       </c>
       <c r="E802" t="n">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>(314, 18)</t>
+          <t>(136, 0)</t>
         </is>
       </c>
       <c r="E803" t="n">
@@ -15705,7 +15705,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>(100, 27)</t>
+          <t>(281, 10)</t>
         </is>
       </c>
       <c r="E804" t="n">
@@ -15724,7 +15724,7 @@
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>(240, 26)</t>
+          <t>(195, 11)</t>
         </is>
       </c>
       <c r="E805" t="n">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>(391, 0)</t>
+          <t>(374, 17)</t>
         </is>
       </c>
       <c r="E806" t="n">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>(286, 7)</t>
+          <t>(136, 38)</t>
         </is>
       </c>
       <c r="E807" t="n">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>(246, 29)</t>
+          <t>(248, 26)</t>
         </is>
       </c>
       <c r="E808" t="n">
@@ -15800,7 +15800,7 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>(209, 41)</t>
+          <t>(283, 35)</t>
         </is>
       </c>
       <c r="E809" t="n">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>(416, 18)</t>
+          <t>(164, 0)</t>
         </is>
       </c>
       <c r="E810" t="n">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>(92, 0)</t>
+          <t>(246, 15)</t>
         </is>
       </c>
       <c r="E811" t="n">
@@ -15857,7 +15857,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>(281, 17)</t>
+          <t>(193, 7)</t>
         </is>
       </c>
       <c r="E812" t="n">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>(23, 6)</t>
+          <t>(168, 0)</t>
         </is>
       </c>
       <c r="E813" t="n">
@@ -15895,7 +15895,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>(226, 10)</t>
+          <t>(155, 13)</t>
         </is>
       </c>
       <c r="E814" t="n">
@@ -15914,7 +15914,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>(194, 15)</t>
+          <t>(378, 10)</t>
         </is>
       </c>
       <c r="E815" t="n">
@@ -15933,7 +15933,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>(177, 32)</t>
+          <t>(247, 0)</t>
         </is>
       </c>
       <c r="E816" t="n">
@@ -15952,7 +15952,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>(177, 0)</t>
+          <t>(129, 11)</t>
         </is>
       </c>
       <c r="E817" t="n">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>(79, 24)</t>
+          <t>(277, 16)</t>
         </is>
       </c>
       <c r="E818" t="n">
@@ -15990,7 +15990,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>(382, 35)</t>
+          <t>(81, 8)</t>
         </is>
       </c>
       <c r="E819" t="n">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>(165, 36)</t>
+          <t>(264, 17)</t>
         </is>
       </c>
       <c r="E820" t="n">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>(299, 14)</t>
+          <t>(266, 8)</t>
         </is>
       </c>
       <c r="E821" t="n">
@@ -16047,7 +16047,7 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>(265, 7)</t>
+          <t>(258, 28)</t>
         </is>
       </c>
       <c r="E822" t="n">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>(244, 33)</t>
+          <t>(287, 11)</t>
         </is>
       </c>
       <c r="E823" t="n">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>(236, 10)</t>
+          <t>(295, 0)</t>
         </is>
       </c>
       <c r="E824" t="n">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>(142, 30)</t>
+          <t>(147, 36)</t>
         </is>
       </c>
       <c r="E825" t="n">
@@ -16123,7 +16123,7 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>(311, 50)</t>
+          <t>(365, 0)</t>
         </is>
       </c>
       <c r="E826" t="n">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>(258, 7)</t>
+          <t>(155, 7)</t>
         </is>
       </c>
       <c r="E827" t="n">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>(173, 10)</t>
+          <t>(316, 13)</t>
         </is>
       </c>
       <c r="E828" t="n">
@@ -16180,7 +16180,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>(287, 10)</t>
+          <t>(202, 25)</t>
         </is>
       </c>
       <c r="E829" t="n">
@@ -16199,7 +16199,7 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>(255, 19)</t>
+          <t>(266, 23)</t>
         </is>
       </c>
       <c r="E830" t="n">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="D831" t="inlineStr">
         <is>
-          <t>(109, 10)</t>
+          <t>(341, 18)</t>
         </is>
       </c>
       <c r="E831" t="n">
@@ -16237,7 +16237,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>(477, 12)</t>
+          <t>(257, 25)</t>
         </is>
       </c>
       <c r="E832" t="n">
@@ -16256,7 +16256,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>(152, 9)</t>
+          <t>(158, 7)</t>
         </is>
       </c>
       <c r="E833" t="n">
@@ -16275,7 +16275,7 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>(171, 28)</t>
+          <t>(351, 0)</t>
         </is>
       </c>
       <c r="E834" t="n">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>(316, 16)</t>
+          <t>(200, 20)</t>
         </is>
       </c>
       <c r="E835" t="n">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>(140, 5)</t>
+          <t>(209, 8)</t>
         </is>
       </c>
       <c r="E836" t="n">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>(224, 6)</t>
+          <t>(308, 27)</t>
         </is>
       </c>
       <c r="E837" t="n">
@@ -16351,7 +16351,7 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>(408, 11)</t>
+          <t>(109, 0)</t>
         </is>
       </c>
       <c r="E838" t="n">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>(148, 22)</t>
+          <t>(285, 24)</t>
         </is>
       </c>
       <c r="E839" t="n">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>(167, 45)</t>
+          <t>(139, 9)</t>
         </is>
       </c>
       <c r="E840" t="n">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>(247, 28)</t>
+          <t>(93, 16)</t>
         </is>
       </c>
       <c r="E841" t="n">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>(119, 11)</t>
+          <t>(117, 14)</t>
         </is>
       </c>
       <c r="E842" t="n">
@@ -16446,7 +16446,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>(31, 15)</t>
+          <t>(223, 0)</t>
         </is>
       </c>
       <c r="E843" t="n">
@@ -16465,7 +16465,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>(282, 9)</t>
+          <t>(254, 34)</t>
         </is>
       </c>
       <c r="E844" t="n">
@@ -16484,7 +16484,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>(173, 0)</t>
+          <t>(159, 21)</t>
         </is>
       </c>
       <c r="E845" t="n">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>(292, 0)</t>
+          <t>(320, 9)</t>
         </is>
       </c>
       <c r="E846" t="n">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>(283, 31)</t>
+          <t>(254, 30)</t>
         </is>
       </c>
       <c r="E847" t="n">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>(370, 0)</t>
+          <t>(300, 15)</t>
         </is>
       </c>
       <c r="E848" t="n">
@@ -16560,7 +16560,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>(306, 12)</t>
+          <t>(135, 23)</t>
         </is>
       </c>
       <c r="E849" t="n">
@@ -16579,7 +16579,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>(249, 11)</t>
+          <t>(165, 0)</t>
         </is>
       </c>
       <c r="E850" t="n">
@@ -16598,7 +16598,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>(193, 17)</t>
+          <t>(357, 19)</t>
         </is>
       </c>
       <c r="E851" t="n">
@@ -16617,7 +16617,7 @@
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>(371, 12)</t>
+          <t>(265, 17)</t>
         </is>
       </c>
       <c r="E852" t="n">
@@ -16636,7 +16636,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>(143, 41)</t>
+          <t>(147, 0)</t>
         </is>
       </c>
       <c r="E853" t="n">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="D854" t="inlineStr">
         <is>
-          <t>(296, 6)</t>
+          <t>(213, 17)</t>
         </is>
       </c>
       <c r="E854" t="n">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>(249, 0)</t>
+          <t>(318, 38)</t>
         </is>
       </c>
       <c r="E855" t="n">
@@ -16693,7 +16693,7 @@
       </c>
       <c r="D856" t="inlineStr">
         <is>
-          <t>(175, 25)</t>
+          <t>(109, 15)</t>
         </is>
       </c>
       <c r="E856" t="n">
@@ -16712,7 +16712,7 @@
       </c>
       <c r="D857" t="inlineStr">
         <is>
-          <t>(303, 20)</t>
+          <t>(228, 12)</t>
         </is>
       </c>
       <c r="E857" t="n">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="D858" t="inlineStr">
         <is>
-          <t>(197, 18)</t>
+          <t>(283, 29)</t>
         </is>
       </c>
       <c r="E858" t="n">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="D859" t="inlineStr">
         <is>
-          <t>(249, 17)</t>
+          <t>(209, 9)</t>
         </is>
       </c>
       <c r="E859" t="n">
@@ -16769,7 +16769,7 @@
       </c>
       <c r="D860" t="inlineStr">
         <is>
-          <t>(350, 33)</t>
+          <t>(260, 16)</t>
         </is>
       </c>
       <c r="E860" t="n">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="D861" t="inlineStr">
         <is>
-          <t>(275, 25)</t>
+          <t>(426, 7)</t>
         </is>
       </c>
       <c r="E861" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D862" t="inlineStr">
         <is>
-          <t>(236, 9)</t>
+          <t>(267, 29)</t>
         </is>
       </c>
       <c r="E862" t="n">
@@ -16826,7 +16826,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>(287, 7)</t>
+          <t>(178, 16)</t>
         </is>
       </c>
       <c r="E863" t="n">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>(287, 12)</t>
+          <t>(212, 17)</t>
         </is>
       </c>
       <c r="E864" t="n">
@@ -16864,7 +16864,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>(194, 9)</t>
+          <t>(497, 12)</t>
         </is>
       </c>
       <c r="E865" t="n">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="D866" t="inlineStr">
         <is>
-          <t>(317, 5)</t>
+          <t>(286, 20)</t>
         </is>
       </c>
       <c r="E866" t="n">
@@ -16902,7 +16902,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>(342, 6)</t>
+          <t>(331, 0)</t>
         </is>
       </c>
       <c r="E867" t="n">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>(297, 35)</t>
+          <t>(149, 10)</t>
         </is>
       </c>
       <c r="E868" t="n">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>(235, 14)</t>
+          <t>(313, 25)</t>
         </is>
       </c>
       <c r="E869" t="n">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>(399, 34)</t>
+          <t>(220, 8)</t>
         </is>
       </c>
       <c r="E870" t="n">
@@ -16978,7 +16978,7 @@
       </c>
       <c r="D871" t="inlineStr">
         <is>
-          <t>(371, 0)</t>
+          <t>(196, 32)</t>
         </is>
       </c>
       <c r="E871" t="n">
@@ -16997,7 +16997,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>(377, 25)</t>
+          <t>(244, 20)</t>
         </is>
       </c>
       <c r="E872" t="n">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="D873" t="inlineStr">
         <is>
-          <t>(119, 0)</t>
+          <t>(293, 6)</t>
         </is>
       </c>
       <c r="E873" t="n">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="D874" t="inlineStr">
         <is>
-          <t>(283, 10)</t>
+          <t>(139, 0)</t>
         </is>
       </c>
       <c r="E874" t="n">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>(366, 0)</t>
+          <t>(251, 8)</t>
         </is>
       </c>
       <c r="E875" t="n">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="D876" t="inlineStr">
         <is>
-          <t>(273, 19)</t>
+          <t>(293, 8)</t>
         </is>
       </c>
       <c r="E876" t="n">
@@ -17092,7 +17092,7 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>(278, 17)</t>
+          <t>(186, 57)</t>
         </is>
       </c>
       <c r="E877" t="n">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>(182, 8)</t>
+          <t>(147, 22)</t>
         </is>
       </c>
       <c r="E878" t="n">
@@ -17130,11 +17130,11 @@
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>(162, 7)</t>
+          <t>(279, 0)</t>
         </is>
       </c>
       <c r="E879" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="880">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>(243, 11)</t>
+          <t>(190, 27)</t>
         </is>
       </c>
       <c r="E880" t="n">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>(183, 15)</t>
+          <t>(299, 50)</t>
         </is>
       </c>
       <c r="E881" t="n">
@@ -17187,7 +17187,7 @@
       </c>
       <c r="D882" t="inlineStr">
         <is>
-          <t>(310, 19)</t>
+          <t>(172, 7)</t>
         </is>
       </c>
       <c r="E882" t="n">
@@ -17206,7 +17206,7 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>(112, 4)</t>
+          <t>(300, 17)</t>
         </is>
       </c>
       <c r="E883" t="n">
@@ -17225,7 +17225,7 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>(232, 29)</t>
+          <t>(185, 23)</t>
         </is>
       </c>
       <c r="E884" t="n">
@@ -17244,7 +17244,7 @@
       </c>
       <c r="D885" t="inlineStr">
         <is>
-          <t>(199, 24)</t>
+          <t>(396, 0)</t>
         </is>
       </c>
       <c r="E885" t="n">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>(214, 12)</t>
+          <t>(258, 9)</t>
         </is>
       </c>
       <c r="E886" t="n">
@@ -17282,7 +17282,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>(124, 8)</t>
+          <t>(306, 26)</t>
         </is>
       </c>
       <c r="E887" t="n">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>(109, 30)</t>
+          <t>(198, 25)</t>
         </is>
       </c>
       <c r="E888" t="n">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="D889" t="inlineStr">
         <is>
-          <t>(236, 31)</t>
+          <t>(149, 22)</t>
         </is>
       </c>
       <c r="E889" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>(116, 18)</t>
+          <t>(169, 8)</t>
         </is>
       </c>
       <c r="E890" t="n">
@@ -17358,7 +17358,7 @@
       </c>
       <c r="D891" t="inlineStr">
         <is>
-          <t>(137, 0)</t>
+          <t>(201, 0)</t>
         </is>
       </c>
       <c r="E891" t="n">
@@ -17377,7 +17377,7 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>(150, 30)</t>
+          <t>(137, 11)</t>
         </is>
       </c>
       <c r="E892" t="n">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="D893" t="inlineStr">
         <is>
-          <t>(272, 0)</t>
+          <t>(182, 19)</t>
         </is>
       </c>
       <c r="E893" t="n">
@@ -17415,7 +17415,7 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>(120, 0)</t>
+          <t>(170, 26)</t>
         </is>
       </c>
       <c r="E894" t="n">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="D895" t="inlineStr">
         <is>
-          <t>(188, 11)</t>
+          <t>(296, 18)</t>
         </is>
       </c>
       <c r="E895" t="n">
@@ -17453,7 +17453,7 @@
       </c>
       <c r="D896" t="inlineStr">
         <is>
-          <t>(111, 9)</t>
+          <t>(78, 13)</t>
         </is>
       </c>
       <c r="E896" t="n">
@@ -17472,7 +17472,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>(294, 23)</t>
+          <t>(303, 13)</t>
         </is>
       </c>
       <c r="E897" t="n">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>(66, 13)</t>
+          <t>(106, 32)</t>
         </is>
       </c>
       <c r="E898" t="n">
@@ -17510,7 +17510,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>(207, 45)</t>
+          <t>(280, 12)</t>
         </is>
       </c>
       <c r="E899" t="n">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>(184, 39)</t>
+          <t>(250, 0)</t>
         </is>
       </c>
       <c r="E900" t="n">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>(263, 0)</t>
+          <t>(339, 9)</t>
         </is>
       </c>
       <c r="E901" t="n">
@@ -17567,7 +17567,7 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>(143, 33)</t>
+          <t>(93, 6)</t>
         </is>
       </c>
       <c r="E902" t="n">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>(151, 6)</t>
+          <t>(174, 8)</t>
         </is>
       </c>
       <c r="E903" t="n">
@@ -17605,7 +17605,7 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>(301, 10)</t>
+          <t>(175, 30)</t>
         </is>
       </c>
       <c r="E904" t="n">
@@ -17624,7 +17624,7 @@
       </c>
       <c r="D905" t="inlineStr">
         <is>
-          <t>(368, 18)</t>
+          <t>(371, 7)</t>
         </is>
       </c>
       <c r="E905" t="n">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>(443, 23)</t>
+          <t>(367, 25)</t>
         </is>
       </c>
       <c r="E906" t="n">
@@ -17662,7 +17662,7 @@
       </c>
       <c r="D907" t="inlineStr">
         <is>
-          <t>(312, 10)</t>
+          <t>(63, 0)</t>
         </is>
       </c>
       <c r="E907" t="n">
@@ -17681,7 +17681,7 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>(94, 22)</t>
+          <t>(90, 21)</t>
         </is>
       </c>
       <c r="E908" t="n">
@@ -17700,7 +17700,7 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>(206, 24)</t>
+          <t>(214, 13)</t>
         </is>
       </c>
       <c r="E909" t="n">
@@ -17719,7 +17719,7 @@
       </c>
       <c r="D910" t="inlineStr">
         <is>
-          <t>(311, 11)</t>
+          <t>(258, 27)</t>
         </is>
       </c>
       <c r="E910" t="n">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>(261, 22)</t>
+          <t>(165, 4)</t>
         </is>
       </c>
       <c r="E911" t="n">
@@ -17757,7 +17757,7 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>(342, 19)</t>
+          <t>(232, 26)</t>
         </is>
       </c>
       <c r="E912" t="n">
@@ -17776,10 +17776,390 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>(257, 11)</t>
+          <t>(281, 13)</t>
         </is>
       </c>
       <c r="E913" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C914" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>(260, 25)</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C915" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>(282, 44)</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C916" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>(271, 8)</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C917" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>(157, 11)</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C918" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>(366, 21)</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C919" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>(226, 26)</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C920" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>(209, 25)</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C921" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>(177, 14)</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C922" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>(356, 22)</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>(121, 8)</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C924" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>(394, 27)</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C925" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>(274, 14)</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C926" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>(231, 9)</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C927" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>(125, 33)</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C928" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>(360, 15)</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C929" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>(239, 29)</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C930" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>(288, 7)</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C931" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>(373, 20)</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C932" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>(283, 25)</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="n">
+        <v>8.159722222222223</v>
+      </c>
+      <c r="C933" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>(256, 35)</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
         <v>0.001</v>
       </c>
     </row>
